--- a/Excel to json convertor/sample-format/userDataViewOrganisationUnits.xlsx
+++ b/Excel to json convertor/sample-format/userDataViewOrganisationUnits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitHub_source_code\excel_to_Json_Converter_angularJS\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EB343-F758-44E4-9C43-13917D6C7684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9830CAC-69B5-4FC9-B4C9-725961915460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userDataViewOrganisationUnits" sheetId="6" r:id="rId1"/>
@@ -4513,6 +4513,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064994C001712374395B345EB88ED991F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c1a62579524e26006c6d5335831b55c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9770305-a86c-4dd4-a8e3-5283c3e6bf99" xmlns:ns3="3f48127a-ff27-4c8f-88c3-e54b29f41588" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="658091719f3253a39288b5ed2add5a7b" ns2:_="" ns3:_="">
     <xsd:import namespace="f9770305-a86c-4dd4-a8e3-5283c3e6bf99"/>
@@ -4709,12 +4715,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4725,6 +4725,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBAC26C-ABD4-4796-8551-545E34A88729}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76993AC-6818-4630-B1D6-F654BE5E03B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4743,15 +4752,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBAC26C-ABD4-4796-8551-545E34A88729}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
   <ds:schemaRefs>
